--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,54 +38,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test__Quiz_02</t>
-  </si>
-  <si>
-    <t>Test__Quiz_03</t>
-  </si>
-  <si>
     <t>soundPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Narration_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Narration_02</t>
-  </si>
-  <si>
-    <t>Test_Narration_03</t>
-  </si>
-  <si>
-    <t>Test_Narration_04</t>
-  </si>
-  <si>
-    <t>Test__Quiz_01</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>test07</t>
+    <t>intro_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro_02</t>
+  </si>
+  <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial02</t>
+  </si>
+  <si>
+    <t>tutorial03</t>
+  </si>
+  <si>
+    <t>tutorial04</t>
+  </si>
+  <si>
+    <t>tutorial05</t>
+  </si>
+  <si>
+    <t>tutorial06</t>
+  </si>
+  <si>
+    <t>tutorial07</t>
+  </si>
+  <si>
+    <t>tutorial08</t>
+  </si>
+  <si>
+    <t>tutorial09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreset_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreset_02</t>
+  </si>
+  <si>
+    <t>foreset_03</t>
+  </si>
+  <si>
+    <t>foreset_04</t>
+  </si>
+  <si>
+    <t>foreset_05</t>
+  </si>
+  <si>
+    <t>foreset_06</t>
+  </si>
+  <si>
+    <t>foreset_07</t>
   </si>
 </sst>
 </file>
@@ -426,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,64 +489,160 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,28 @@
   </si>
   <si>
     <t>foreset_07</t>
+  </si>
+  <si>
+    <t>foreset_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreset_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreset_08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreset_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreset_08</t>
+  </si>
+  <si>
+    <t>foreset_09</t>
   </si>
 </sst>
 </file>
@@ -458,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -602,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -610,7 +632,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -618,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -626,7 +648,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -634,7 +656,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -642,7 +664,23 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,15 +42,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intro_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro_02</t>
+    <t>tutorial02</t>
+  </si>
+  <si>
+    <t>tutorial03</t>
+  </si>
+  <si>
+    <t>tutorial04</t>
+  </si>
+  <si>
+    <t>tutorial05</t>
+  </si>
+  <si>
+    <t>tutorial06</t>
+  </si>
+  <si>
+    <t>tutorial07</t>
+  </si>
+  <si>
+    <t>tutorial08</t>
   </si>
   <si>
     <t>tutorial01</t>
@@ -61,85 +71,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tutorial02</t>
-  </si>
-  <si>
-    <t>tutorial03</t>
-  </si>
-  <si>
-    <t>tutorial04</t>
-  </si>
-  <si>
-    <t>tutorial05</t>
-  </si>
-  <si>
-    <t>tutorial06</t>
-  </si>
-  <si>
-    <t>tutorial07</t>
-  </si>
-  <si>
-    <t>tutorial08</t>
-  </si>
-  <si>
-    <t>tutorial09</t>
+    <t>Lysoniastep01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tutorial09</t>
+    <t>Lysoniastep02</t>
+  </si>
+  <si>
+    <t>Lysoniastep03</t>
+  </si>
+  <si>
+    <t>Lysoniastep04</t>
+  </si>
+  <si>
+    <t>Lysoniastep05</t>
+  </si>
+  <si>
+    <t>Lysoniastep06</t>
+  </si>
+  <si>
+    <t>Lysoniastep07</t>
+  </si>
+  <si>
+    <t>Lysoniastep08</t>
+  </si>
+  <si>
+    <t>Lysoniastep09</t>
+  </si>
+  <si>
+    <t>Lysoniastep10</t>
+  </si>
+  <si>
+    <t>Lysoniastep11</t>
+  </si>
+  <si>
+    <t>Lysoniastep12</t>
+  </si>
+  <si>
+    <t>Lysoniastep13</t>
+  </si>
+  <si>
+    <t>Lysoniastep14</t>
+  </si>
+  <si>
+    <t>Lysoniastep15</t>
+  </si>
+  <si>
+    <t>Lysoniastep16</t>
+  </si>
+  <si>
+    <t>Lysoniastep17</t>
+  </si>
+  <si>
+    <t>Lysoniastep18</t>
+  </si>
+  <si>
+    <t>Lysoniastep19</t>
+  </si>
+  <si>
+    <t>Lysoniastep20</t>
+  </si>
+  <si>
+    <t>Lysoniastep21</t>
+  </si>
+  <si>
+    <t>Lysoniastep22</t>
+  </si>
+  <si>
+    <t>Lysoniastep23</t>
+  </si>
+  <si>
+    <t>Lysoniastep24</t>
+  </si>
+  <si>
+    <t>Lysoniastep25</t>
+  </si>
+  <si>
+    <t>Lysoniastep26</t>
+  </si>
+  <si>
+    <t>Lysoniastep27</t>
+  </si>
+  <si>
+    <t>Lysoniastep28</t>
+  </si>
+  <si>
+    <t>Lysoniastep29</t>
+  </si>
+  <si>
+    <t>Lysoniastep30</t>
+  </si>
+  <si>
+    <t>Lysoniastep31</t>
+  </si>
+  <si>
+    <t>Lysoniastep32</t>
+  </si>
+  <si>
+    <t>Lysoniastep33</t>
+  </si>
+  <si>
+    <t>Lysoniastep34</t>
+  </si>
+  <si>
+    <t>Lysoniastep35</t>
+  </si>
+  <si>
+    <t>Lysoniastep36</t>
+  </si>
+  <si>
+    <t>Lysoniastep37</t>
+  </si>
+  <si>
+    <t>Lysoniastep01</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreset_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreset_02</t>
-  </si>
-  <si>
-    <t>foreset_03</t>
-  </si>
-  <si>
-    <t>foreset_04</t>
-  </si>
-  <si>
-    <t>foreset_05</t>
-  </si>
-  <si>
-    <t>foreset_06</t>
-  </si>
-  <si>
-    <t>foreset_07</t>
-  </si>
-  <si>
-    <t>foreset_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreset_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreset_08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreset_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreset_08</t>
-  </si>
-  <si>
-    <t>foreset_09</t>
   </si>
 </sst>
 </file>
@@ -480,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,171 +561,363 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,148 +42,228 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tutorial02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial08</t>
-  </si>
-  <si>
-    <t>tutorial01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lysoniastep01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lysoniastep02</t>
-  </si>
-  <si>
-    <t>Lysoniastep03</t>
-  </si>
-  <si>
-    <t>Lysoniastep04</t>
-  </si>
-  <si>
-    <t>Lysoniastep05</t>
-  </si>
-  <si>
-    <t>Lysoniastep06</t>
-  </si>
-  <si>
-    <t>Lysoniastep07</t>
-  </si>
-  <si>
-    <t>Lysoniastep08</t>
-  </si>
-  <si>
-    <t>Lysoniastep09</t>
-  </si>
-  <si>
-    <t>Lysoniastep10</t>
-  </si>
-  <si>
-    <t>Lysoniastep11</t>
-  </si>
-  <si>
-    <t>Lysoniastep12</t>
-  </si>
-  <si>
-    <t>Lysoniastep13</t>
-  </si>
-  <si>
-    <t>Lysoniastep14</t>
-  </si>
-  <si>
-    <t>Lysoniastep15</t>
-  </si>
-  <si>
-    <t>Lysoniastep16</t>
-  </si>
-  <si>
-    <t>Lysoniastep17</t>
-  </si>
-  <si>
-    <t>Lysoniastep18</t>
-  </si>
-  <si>
-    <t>Lysoniastep19</t>
-  </si>
-  <si>
-    <t>Lysoniastep20</t>
-  </si>
-  <si>
-    <t>Lysoniastep21</t>
-  </si>
-  <si>
-    <t>Lysoniastep22</t>
-  </si>
-  <si>
-    <t>Lysoniastep23</t>
-  </si>
-  <si>
-    <t>Lysoniastep24</t>
-  </si>
-  <si>
-    <t>Lysoniastep25</t>
-  </si>
-  <si>
-    <t>Lysoniastep26</t>
-  </si>
-  <si>
-    <t>Lysoniastep27</t>
-  </si>
-  <si>
-    <t>Lysoniastep28</t>
-  </si>
-  <si>
-    <t>Lysoniastep29</t>
-  </si>
-  <si>
-    <t>Lysoniastep30</t>
-  </si>
-  <si>
-    <t>Lysoniastep31</t>
-  </si>
-  <si>
-    <t>Lysoniastep32</t>
-  </si>
-  <si>
-    <t>Lysoniastep33</t>
-  </si>
-  <si>
-    <t>Lysoniastep34</t>
-  </si>
-  <si>
-    <t>Lysoniastep35</t>
-  </si>
-  <si>
-    <t>Lysoniastep36</t>
-  </si>
-  <si>
-    <t>Lysoniastep37</t>
-  </si>
-  <si>
-    <t>Lysoniastep01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial09</t>
+  </si>
+  <si>
+    <t>tutorial10</t>
+  </si>
+  <si>
+    <t>tutorial11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial12</t>
+  </si>
+  <si>
+    <t>tutorial13</t>
+  </si>
+  <si>
+    <t>tutorial14</t>
+  </si>
+  <si>
+    <t>tutorial15</t>
+  </si>
+  <si>
+    <t>forest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest02</t>
+  </si>
+  <si>
+    <t>forest03</t>
+  </si>
+  <si>
+    <t>forest04</t>
+  </si>
+  <si>
+    <t>forest05</t>
+  </si>
+  <si>
+    <t>forest06</t>
+  </si>
+  <si>
+    <t>forest07</t>
+  </si>
+  <si>
+    <t>deepSea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea02</t>
+  </si>
+  <si>
+    <t>deepSea03</t>
+  </si>
+  <si>
+    <t>deepSea04</t>
+  </si>
+  <si>
+    <t>deepSea05</t>
+  </si>
+  <si>
+    <t>deepSea06</t>
+  </si>
+  <si>
+    <t>deepSea07</t>
+  </si>
+  <si>
+    <t>deepSea08</t>
+  </si>
+  <si>
+    <t>deepSea09</t>
+  </si>
+  <si>
+    <t>deepSea10</t>
+  </si>
+  <si>
+    <t>bamboo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo02</t>
+  </si>
+  <si>
+    <t>bamboo03</t>
+  </si>
+  <si>
+    <t>bamboo04</t>
+  </si>
+  <si>
+    <t>bamboo05</t>
+  </si>
+  <si>
+    <t>bamboo06</t>
+  </si>
+  <si>
+    <t>bamboo07</t>
+  </si>
+  <si>
+    <t>cooperation01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation02</t>
+  </si>
+  <si>
+    <t>cooperation03</t>
+  </si>
+  <si>
+    <t>cooperation04</t>
+  </si>
+  <si>
+    <t>cooperation05</t>
+  </si>
+  <si>
+    <t>cooperation06</t>
+  </si>
+  <si>
+    <t>cooperation07</t>
+  </si>
+  <si>
+    <t>cooperation08</t>
+  </si>
+  <si>
+    <t>memories01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories02</t>
+  </si>
+  <si>
+    <t>memories03</t>
+  </si>
+  <si>
+    <t>memories04</t>
+  </si>
+  <si>
+    <t>memories05</t>
+  </si>
+  <si>
+    <t>memories06</t>
+  </si>
+  <si>
+    <t>tutorial03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,12 +296,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,11 +324,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,67 +650,67 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -645,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -741,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -818,7 +907,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -826,98 +915,162 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tutorial02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial09</t>
+  </si>
+  <si>
+    <t>tutorial10</t>
+  </si>
+  <si>
+    <t>tutorial12</t>
+  </si>
+  <si>
+    <t>tutorial13</t>
+  </si>
+  <si>
+    <t>tutorial14</t>
+  </si>
+  <si>
+    <t>tutorial15</t>
+  </si>
+  <si>
+    <t>forest03</t>
+  </si>
+  <si>
+    <t>forest04</t>
+  </si>
+  <si>
+    <t>forest05</t>
+  </si>
+  <si>
+    <t>forest06</t>
+  </si>
+  <si>
+    <t>forest07</t>
+  </si>
+  <si>
+    <t>deepSea02</t>
+  </si>
+  <si>
+    <t>deepSea04</t>
+  </si>
+  <si>
+    <t>deepSea06</t>
+  </si>
+  <si>
+    <t>deepSea07</t>
+  </si>
+  <si>
+    <t>deepSea08</t>
+  </si>
+  <si>
+    <t>deepSea09</t>
+  </si>
+  <si>
+    <t>deepSea10</t>
+  </si>
+  <si>
+    <t>bamboo02</t>
+  </si>
+  <si>
+    <t>bamboo04</t>
+  </si>
+  <si>
+    <t>bamboo05</t>
+  </si>
+  <si>
+    <t>bamboo06</t>
+  </si>
+  <si>
+    <t>bamboo07</t>
+  </si>
+  <si>
+    <t>cooperation02</t>
+  </si>
+  <si>
+    <t>cooperation03</t>
+  </si>
+  <si>
+    <t>cooperation04</t>
+  </si>
+  <si>
+    <t>cooperation05</t>
+  </si>
+  <si>
+    <t>cooperation06</t>
+  </si>
+  <si>
+    <t>cooperation07</t>
+  </si>
+  <si>
+    <t>cooperation08</t>
+  </si>
+  <si>
+    <t>memories02</t>
+  </si>
+  <si>
+    <t>memories03</t>
+  </si>
+  <si>
+    <t>memories04</t>
+  </si>
+  <si>
+    <t>memories05</t>
+  </si>
+  <si>
+    <t>tutorial06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial11</t>
+  </si>
+  <si>
+    <t>forest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo08</t>
+  </si>
+  <si>
+    <t>cooperation01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tutorial01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,192 +254,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tutorial09</t>
-  </si>
-  <si>
-    <t>tutorial10</t>
-  </si>
-  <si>
-    <t>tutorial11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial12</t>
-  </si>
-  <si>
-    <t>tutorial13</t>
-  </si>
-  <si>
-    <t>tutorial14</t>
-  </si>
-  <si>
-    <t>tutorial15</t>
-  </si>
-  <si>
     <t>forest01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>forest02</t>
-  </si>
-  <si>
-    <t>forest03</t>
-  </si>
-  <si>
-    <t>forest04</t>
-  </si>
-  <si>
-    <t>forest05</t>
-  </si>
-  <si>
-    <t>forest06</t>
-  </si>
-  <si>
-    <t>forest07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deepSea01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deepSea02</t>
-  </si>
-  <si>
     <t>deepSea03</t>
-  </si>
-  <si>
-    <t>deepSea04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deepSea05</t>
-  </si>
-  <si>
-    <t>deepSea06</t>
-  </si>
-  <si>
-    <t>deepSea07</t>
-  </si>
-  <si>
-    <t>deepSea08</t>
-  </si>
-  <si>
-    <t>deepSea09</t>
-  </si>
-  <si>
-    <t>deepSea10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bamboo01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bamboo01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bamboo02</t>
-  </si>
-  <si>
     <t>bamboo03</t>
-  </si>
-  <si>
-    <t>bamboo04</t>
-  </si>
-  <si>
-    <t>bamboo05</t>
-  </si>
-  <si>
-    <t>bamboo06</t>
-  </si>
-  <si>
-    <t>bamboo07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cooperation01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cooperation01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooperation02</t>
-  </si>
-  <si>
-    <t>cooperation03</t>
-  </si>
-  <si>
-    <t>cooperation04</t>
-  </si>
-  <si>
-    <t>cooperation05</t>
-  </si>
-  <si>
-    <t>cooperation06</t>
-  </si>
-  <si>
-    <t>cooperation07</t>
-  </si>
-  <si>
-    <t>cooperation08</t>
-  </si>
-  <si>
     <t>memories01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memories02</t>
-  </si>
-  <si>
-    <t>memories03</t>
-  </si>
-  <si>
-    <t>memories04</t>
-  </si>
-  <si>
-    <t>memories05</t>
-  </si>
-  <si>
     <t>memories06</t>
-  </si>
-  <si>
-    <t>tutorial03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepSea01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memories01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +359,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,24 +680,24 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -675,7 +705,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -683,7 +713,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -691,7 +721,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -699,7 +729,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -707,7 +737,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -715,119 +745,119 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -835,242 +865,250 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
+      <c r="B38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>43</v>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,113 +54,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>forest03</t>
+  </si>
+  <si>
+    <t>forest04</t>
+  </si>
+  <si>
+    <t>deepSea02</t>
+  </si>
+  <si>
+    <t>deepSea04</t>
+  </si>
+  <si>
+    <t>deepSea06</t>
+  </si>
+  <si>
+    <t>deepSea07</t>
+  </si>
+  <si>
+    <t>bamboo02</t>
+  </si>
+  <si>
+    <t>bamboo04</t>
+  </si>
+  <si>
+    <t>bamboo05</t>
+  </si>
+  <si>
+    <t>cooperation02</t>
+  </si>
+  <si>
+    <t>cooperation03</t>
+  </si>
+  <si>
+    <t>cooperation04</t>
+  </si>
+  <si>
+    <t>cooperation05</t>
+  </si>
+  <si>
+    <t>memories02</t>
+  </si>
+  <si>
+    <t>memories03</t>
+  </si>
+  <si>
+    <t>memories04</t>
+  </si>
+  <si>
+    <t>memories05</t>
+  </si>
+  <si>
+    <t>tutorial06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tutorial09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial13</t>
-  </si>
-  <si>
-    <t>tutorial14</t>
-  </si>
-  <si>
-    <t>tutorial15</t>
-  </si>
-  <si>
-    <t>forest03</t>
-  </si>
-  <si>
-    <t>forest04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>forest05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>forest06</t>
-  </si>
-  <si>
-    <t>forest07</t>
-  </si>
-  <si>
-    <t>deepSea02</t>
-  </si>
-  <si>
-    <t>deepSea04</t>
-  </si>
-  <si>
-    <t>deepSea06</t>
-  </si>
-  <si>
-    <t>deepSea07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deepSea08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deepSea09</t>
-  </si>
-  <si>
-    <t>deepSea10</t>
-  </si>
-  <si>
-    <t>bamboo02</t>
-  </si>
-  <si>
-    <t>bamboo04</t>
-  </si>
-  <si>
-    <t>bamboo05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bamboo06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bamboo07</t>
-  </si>
-  <si>
-    <t>cooperation02</t>
-  </si>
-  <si>
-    <t>cooperation03</t>
-  </si>
-  <si>
-    <t>cooperation04</t>
-  </si>
-  <si>
-    <t>cooperation05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cooperation06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cooperation07</t>
-  </si>
-  <si>
-    <t>cooperation08</t>
-  </si>
-  <si>
-    <t>memories02</t>
-  </si>
-  <si>
-    <t>memories03</t>
-  </si>
-  <si>
-    <t>memories04</t>
-  </si>
-  <si>
-    <t>memories05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memories07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tutorial06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tutorial08</t>
+    <t>tutorial07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,29 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tutorial03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial11</t>
-  </si>
-  <si>
-    <t>forest01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deepSea03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +297,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>deepSea08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepSea09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bamboo01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,82 +313,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bamboo08</t>
+    <t>bamboo06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cooperation01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memories01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memories06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepSea01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepSea03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepSea05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bamboo01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bamboo03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooperation01</t>
+    <t>cooperation06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,9 +406,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -692,15 +736,15 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,407 +752,367 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>72</v>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>26</v>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>28</v>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>29</v>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>54</v>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
+++ b/WhiteCane/ExcelToJson/xlsx/SoundData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,9 @@
   <si>
     <t>memories06</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oscaNO</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,6 +1118,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
